--- a/data/trans_camb/P17G_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P17G_R2-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>1.027939424528693</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.419838855320195</v>
+        <v>1.419838855320194</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.21909719457951</v>
@@ -655,7 +655,7 @@
         <v>1.470755774236232</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>2.732685236315385</v>
+        <v>2.732685236315384</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.1349104975781848</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.15577057975085</v>
+        <v>-3.05519214295677</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.765129585537991</v>
+        <v>-1.608744458531693</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.121209457656728</v>
+        <v>-1.404681788667554</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.784733253234755</v>
+        <v>-1.839009150325145</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.632240939426106</v>
+        <v>-1.549169058114942</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1044350259283442</v>
+        <v>-0.2895699487205737</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.804898319972625</v>
+        <v>-1.754493634751419</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.7693632311339392</v>
+        <v>-0.8628059630600146</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02063488492795164</v>
+        <v>0.05822314695996119</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.09453706936826</v>
+        <v>1.958669768369092</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.034151087130304</v>
+        <v>3.944003306660739</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.158659512086041</v>
+        <v>3.954723707730182</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.599270664235727</v>
+        <v>4.479928425740174</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.410449294317548</v>
+        <v>4.290532855889064</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.493266543093712</v>
+        <v>5.268045554140206</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.256099696176939</v>
+        <v>2.16479792040731</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.189237684055272</v>
+        <v>3.413969889458157</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.939087778907618</v>
+        <v>3.843126801406089</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.2720963557111191</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.3758324362418578</v>
+        <v>0.3758324362418574</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.3714868762033115</v>
@@ -760,7 +760,7 @@
         <v>0.4481730174249585</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8327118679293307</v>
+        <v>0.8327118679293305</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.0376542420923329</v>
@@ -769,7 +769,7 @@
         <v>0.3346710785546083</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.5578474857930619</v>
+        <v>0.5578474857930618</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.629559101600569</v>
+        <v>-0.6360800481165735</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3773791899871405</v>
+        <v>-0.339082036082614</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2614526463170084</v>
+        <v>-0.3074285838148585</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4095802995153588</v>
+        <v>-0.4263914894934509</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3912921736751839</v>
+        <v>-0.377344832807092</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.02657901306988807</v>
+        <v>-0.08392287449917164</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4073342839819016</v>
+        <v>-0.4054944847021504</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1596550153687224</v>
+        <v>-0.2041292494555487</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.004656568487417057</v>
+        <v>0.0142166853363442</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8942508101388866</v>
+        <v>0.9127854232475842</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.637332223234773</v>
+        <v>1.584179790187628</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.63698291606646</v>
+        <v>1.405341128013306</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.54371376337288</v>
+        <v>2.108539136904819</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.268893206587501</v>
+        <v>2.070946949451248</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.48818690891409</v>
+        <v>2.913551899879445</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9130350036096799</v>
+        <v>0.8289302738397719</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.277674343140742</v>
+        <v>1.206299136491624</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.481874357226588</v>
+        <v>1.522352509644439</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>2.628723074721761</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2.154714626023223</v>
+        <v>2.154714626023222</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.2363305746575742</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8625372206030064</v>
+        <v>1.016968038894494</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.444532590993953</v>
+        <v>0.4942338090756078</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01888404689271151</v>
+        <v>0.1309112946066729</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.321264981505335</v>
+        <v>-2.356411944846888</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.92083068510681</v>
+        <v>-3.044528757570255</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.2049361433539436</v>
+        <v>-0.2203376360399388</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04646651849706773</v>
+        <v>0.04175069918751698</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.6806722228808483</v>
+        <v>-0.6554214576986087</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3285940552645711</v>
+        <v>0.4373647530477053</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.124281414617335</v>
+        <v>6.355512856591764</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.164428717242334</v>
+        <v>5.330885329452146</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.274055330787043</v>
+        <v>4.398379674886482</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.380898387304047</v>
+        <v>2.998242966570658</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.97319820892801</v>
+        <v>1.679003065602427</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.699850017264405</v>
+        <v>4.548214445682876</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.955620868424876</v>
+        <v>3.813918834297417</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.86224719111357</v>
+        <v>2.684935181164315</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.780092984637633</v>
+        <v>3.710395696055619</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.2299381642164152</v>
+        <v>0.2372500430961412</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.05467774386998728</v>
+        <v>0.0272891102390294</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.09640502584987327</v>
+        <v>-0.05869501712820874</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6743848959274934</v>
+        <v>-0.675933292008841</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7232718161009821</v>
+        <v>-0.7377737291263168</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1937509502330161</v>
+        <v>-0.1346586548278198</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.04624682885897498</v>
+        <v>-0.01969360801154939</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2554079999266609</v>
+        <v>-0.2426308177316325</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.06948739247271966</v>
+        <v>0.1206422234335171</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7.678022574835639</v>
+        <v>8.044897559109456</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6.240955660634802</v>
+        <v>6.314815930266623</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5.172626527525852</v>
+        <v>5.791789489253032</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.39237588435714</v>
+        <v>2.059313334633022</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.666764830613323</v>
+        <v>1.233634066309414</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.440920998642152</v>
+        <v>3.200917239688025</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>3.100106885433762</v>
+        <v>2.604000714032876</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.193684881529435</v>
+        <v>2.189335057793576</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3.025592037880013</v>
+        <v>2.824514827914774</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-0.6637031028354075</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.1295871072689081</v>
+        <v>-0.1295871072689074</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-1.076108710002415</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.468742004884392</v>
+        <v>-2.73808995575819</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.821025677857895</v>
+        <v>-1.812094914834548</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.509494223116047</v>
+        <v>-2.505546463071779</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.844572730106685</v>
+        <v>-4.7280647779569</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.018319163623887</v>
+        <v>-3.944645167705057</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.996410939902516</v>
+        <v>-3.832853654059719</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.404563865779554</v>
+        <v>-2.400844177275346</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.672034602273347</v>
+        <v>-1.722982064727585</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.086009758645829</v>
+        <v>-2.130444674736964</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.1862373931550286</v>
+        <v>-0.2155613385678288</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.316276570955024</v>
+        <v>1.249191610185084</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.1017941275937323</v>
+        <v>-0.1635525121182954</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.517321242295884</v>
+        <v>1.489264740426133</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.5677071885907</v>
+        <v>2.484605801624781</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.576702199006621</v>
+        <v>2.437068718869695</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.02848857410748961</v>
+        <v>-0.00730310536828724</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.051674754218332</v>
+        <v>1.113972767678305</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.260418477565851</v>
+        <v>0.2852875237901121</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.2536007507461432</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.04951519369130616</v>
+        <v>-0.04951519369130589</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.6109938904668181</v>
@@ -1211,28 +1211,26 @@
         <v>-1</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8196637481013944</v>
+        <v>-0.8399004234617464</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.9106804204917094</v>
-      </c>
-      <c r="G20" s="6" t="n">
         <v>-1</v>
       </c>
+      <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.7886788150261653</v>
+        <v>-0.8122301719734213</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.8986767922299733</v>
+        <v>-0.8814999966849304</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7026892434541625</v>
+        <v>-0.7199675183169093</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.7873752862031015</v>
+        <v>-0.7900047862706614</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1241,29 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3952083794549244</v>
+        <v>0.3701145740904764</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.004186226814515</v>
+        <v>1.956157795995892</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3220319916416584</v>
+        <v>0.3682061734475308</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.448961550908919</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>4.397575699682892</v>
-      </c>
+        <v>2.487732895140842</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>3.545245378419909</v>
+        <v>2.387065227514794</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1234701590464215</v>
+        <v>0.1052140766493247</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.033847136696357</v>
+        <v>1.165261861557439</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.345488600322671</v>
+        <v>0.3161329387456938</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1293,7 @@
         <v>0.05309143493345044</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.4131011547389201</v>
+        <v>-0.4131011547389198</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.9507499160277975</v>
@@ -1306,7 +1302,7 @@
         <v>0.01074046228185972</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.1212040028452132</v>
+        <v>-0.1212040028452131</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1313,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.614472446116331</v>
+        <v>-1.640103527575461</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.9046239801396072</v>
+        <v>-0.9237501407350122</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.805744670543336</v>
+        <v>-0.825595046860773</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.290780547190469</v>
+        <v>-2.355042613030791</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.160000786659058</v>
+        <v>-1.292337234440302</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.552552544080213</v>
+        <v>-1.515549523079385</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.504951963361763</v>
+        <v>-1.604395676643353</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.6916190566642701</v>
+        <v>-0.7023439418016807</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.8289385345198174</v>
+        <v>-0.8143535398952968</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1348,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.272704397806834</v>
+        <v>-0.290289148292141</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8676635385659761</v>
+        <v>0.8032033894157138</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.000285367445583</v>
+        <v>1.092921474878628</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.3871666626638787</v>
+        <v>-0.4399971652438359</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.284456937987591</v>
+        <v>1.257666429015438</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6189214213424951</v>
+        <v>0.6109144548468416</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-0.495207604414684</v>
+        <v>-0.5000321009938058</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.7840616034999722</v>
+        <v>0.759267452910898</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6392914245534908</v>
+        <v>0.5833989575659384</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1398,7 @@
         <v>0.03642982933896859</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.2834582373924106</v>
+        <v>-0.2834582373924104</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.8277179281170081</v>
@@ -1411,7 +1407,7 @@
         <v>0.009350590557085972</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.1055195739944664</v>
+        <v>-0.1055195739944662</v>
       </c>
     </row>
     <row r="26">
@@ -1425,28 +1421,28 @@
         <v>-1</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6895529878423676</v>
+        <v>-0.7022777516818931</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6335335767926207</v>
+        <v>-0.6706384914679296</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6121015576240737</v>
+        <v>-0.6187978339939217</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.7363869479871482</v>
+        <v>-0.7038314652678817</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.9586472327233706</v>
+        <v>-0.9638553930675047</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4879992733854439</v>
+        <v>-0.4859341540920859</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5417240151960173</v>
+        <v>-0.5615508132693006</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1453,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.2532394875214324</v>
+        <v>-0.1765755171104631</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.533148656214897</v>
+        <v>1.343928843391688</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.513726277853305</v>
+        <v>2.03162311564573</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.1306540714563687</v>
+        <v>-0.3159323796948889</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.55418356529997</v>
+        <v>1.505264263294317</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7955699586101024</v>
+        <v>0.8141491732923771</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.5321048367759261</v>
+        <v>-0.5430634758082988</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.9576043070074943</v>
+        <v>0.972506287298545</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.8505881434487936</v>
+        <v>0.6700576557808007</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1507,7 @@
         <v>0.4339678269972534</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.1392935873461051</v>
+        <v>0.1392935873461052</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-0.4314850157493114</v>
@@ -1531,31 +1527,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.674356724848596</v>
+        <v>-1.698401549455717</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.6244519350326757</v>
+        <v>-0.6238404292699976</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.517950935932088</v>
+        <v>-1.442276178696512</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.521481854950183</v>
+        <v>-1.571866820807767</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.610872876920511</v>
+        <v>-0.8516811421714742</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.005914128595417</v>
+        <v>-1.060686148988955</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.118969523691364</v>
+        <v>-1.237632024817741</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.343747846340734</v>
+        <v>-0.4142242608093811</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.8330208659545247</v>
+        <v>-0.8079683410690723</v>
       </c>
     </row>
     <row r="30">
@@ -1569,28 +1565,28 @@
         <v>0</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.350369608491538</v>
+        <v>1.369447721645481</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1424241789890137</v>
+        <v>0.143548474990902</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2924798839190651</v>
+        <v>0.2618370969310365</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.59767305569473</v>
+        <v>1.475205809276777</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.8829294816312508</v>
+        <v>0.8597122497244736</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.07567340479922804</v>
+        <v>0.04562310352307827</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.140704219410935</v>
+        <v>1.10043613093276</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.4301975655861118</v>
+        <v>0.4496422422134258</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1612,7 @@
         <v>0.6476790746094702</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2078899313241709</v>
+        <v>0.2078899313241712</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.7219969991592844</v>
@@ -1637,22 +1633,24 @@
       </c>
       <c r="C32" s="6" t="inlineStr"/>
       <c r="D32" s="6" t="n">
-        <v>-0.8187688884954696</v>
+        <v>-1</v>
       </c>
       <c r="E32" s="6" t="inlineStr"/>
       <c r="F32" s="6" t="inlineStr"/>
-      <c r="G32" s="6" t="inlineStr"/>
+      <c r="G32" s="6" t="n">
+        <v>-0.7998612575612297</v>
+      </c>
       <c r="H32" s="6" t="n">
-        <v>-0.752160598001399</v>
+        <v>-0.7528364564598039</v>
       </c>
       <c r="I32" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4511889372153198</v>
+        <v>-0.4623815438907147</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.7238559145578366</v>
+        <v>-0.7351776583908635</v>
       </c>
     </row>
     <row r="33">
@@ -1666,18 +1664,20 @@
       <c r="D33" s="6" t="inlineStr"/>
       <c r="E33" s="6" t="inlineStr"/>
       <c r="F33" s="6" t="inlineStr"/>
-      <c r="G33" s="6" t="inlineStr"/>
+      <c r="G33" s="6" t="n">
+        <v>6.184263128080598</v>
+      </c>
       <c r="H33" s="6" t="n">
-        <v>4.256241846199358</v>
+        <v>5.955362540752373</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.004812006197033</v>
+        <v>1.053644570952335</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>4.830004579057443</v>
+        <v>4.375810980693012</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>2.017102423756292</v>
+        <v>1.912239929442275</v>
       </c>
     </row>
     <row r="34">
@@ -1707,7 +1707,7 @@
         <v>0.2599807608193413</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>0.08068298131671814</v>
+        <v>0.08068298131671797</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>0.183102570704132</v>
@@ -1716,7 +1716,7 @@
         <v>0.3387400384649077</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0.254756859290638</v>
+        <v>0.2547568592906375</v>
       </c>
     </row>
     <row r="35">
@@ -1727,31 +1727,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.3280266236532381</v>
+        <v>0.4824660964654258</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.2847792290058577</v>
+        <v>-0.2423117827290493</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.5623628593655517</v>
+        <v>-0.2905255801570374</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.170562650103333</v>
+        <v>-1.021438747080304</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.7702556208264087</v>
+        <v>-0.7258912732722518</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.9799875251421302</v>
+        <v>-0.8270730703465746</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.5825064873007694</v>
+        <v>-0.643487929822655</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.5046017099931693</v>
+        <v>-0.5741242774669638</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.5928731751661117</v>
+        <v>-0.4976619319142673</v>
       </c>
     </row>
     <row r="36">
@@ -1762,31 +1762,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.24816955067274</v>
+        <v>4.974645053033286</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.433488207082934</v>
+        <v>2.615304304548029</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6.270516233783067</v>
+        <v>5.318537050948791</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>0.60846091891652</v>
+        <v>0.63542707447333</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.440170757211497</v>
+        <v>1.429673522580131</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.100969419888236</v>
+        <v>1.291387769969319</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.121851393795718</v>
+        <v>1.043324419269011</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.268183939655146</v>
+        <v>1.256273926206281</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>1.446869307529441</v>
+        <v>1.398846511617995</v>
       </c>
     </row>
     <row r="37">
@@ -1812,7 +1812,7 @@
         <v>0.1942963507039052</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.06029834201709686</v>
+        <v>0.06029834201709673</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.1612463875032299</v>
@@ -1821,7 +1821,7 @@
         <v>0.2983060658030342</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.2243476052483246</v>
+        <v>0.2243476052483241</v>
       </c>
     </row>
     <row r="38">
@@ -1835,22 +1835,22 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>-0.6768995321268888</v>
+        <v>-0.5929668426608823</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.4678760870137931</v>
+        <v>-0.4706288497371041</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.5646359550270403</v>
+        <v>-0.5043233527214905</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.4151151565267933</v>
+        <v>-0.4463236586439385</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.3733448580766117</v>
+        <v>-0.410321705299298</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.4555298566573709</v>
+        <v>-0.3808115050914498</v>
       </c>
     </row>
     <row r="39">
@@ -1864,22 +1864,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>0.692698248205268</v>
+        <v>0.7616162665385329</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.418603546301674</v>
+        <v>1.482092458934089</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.192737706927388</v>
+        <v>1.499251666377681</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.443872176599013</v>
+        <v>1.346997964705907</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.51786763693624</v>
+        <v>1.456411144871135</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.684778462646951</v>
+        <v>1.866568669712036</v>
       </c>
     </row>
     <row r="40">
@@ -1918,7 +1918,7 @@
         <v>0.3135032713314015</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0.5366080840911545</v>
+        <v>0.5366080840911548</v>
       </c>
     </row>
     <row r="41">
@@ -1929,31 +1929,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.7704894607361333</v>
+        <v>-0.6951037431261604</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.3051399033508783</v>
+        <v>-0.2801034433793567</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.255346981621918</v>
+        <v>-0.2070324958006491</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.9948779269158566</v>
+        <v>-0.9112665667064708</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.4754596777860683</v>
+        <v>-0.4273279172985143</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.02439151153366377</v>
+        <v>8.537426616563154e-05</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.6868483476755308</v>
+        <v>-0.6641569756020609</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.1411655347857036</v>
+        <v>-0.09902354731104097</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.09201144762731121</v>
+        <v>0.08466072077576735</v>
       </c>
     </row>
     <row r="42">
@@ -1964,31 +1964,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.4379457547530798</v>
+        <v>0.4795764276366965</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.091216505218855</v>
+        <v>1.03230729941485</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.115332778867984</v>
+        <v>1.074148196062904</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.1714653767031214</v>
+        <v>0.2156096118452873</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.8646115516200472</v>
+        <v>0.87297796090602</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.270239871374092</v>
+        <v>1.256964961959804</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.1515922318768997</v>
+        <v>0.1688896247459289</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.7404109393844681</v>
+        <v>0.7699430286207333</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>1.024301439254282</v>
+        <v>0.9463165408913579</v>
       </c>
     </row>
     <row r="43">
@@ -2023,7 +2023,7 @@
         <v>0.2048543211833931</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.3506390358900346</v>
+        <v>0.3506390358900349</v>
       </c>
     </row>
     <row r="44">
@@ -2034,31 +2034,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4368266149411936</v>
+        <v>-0.4159609248388291</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.181683295426538</v>
+        <v>-0.1820936183092154</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1459090035563446</v>
+        <v>-0.1297560961797985</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.5088896962376767</v>
+        <v>-0.4838380195026072</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.237734540102664</v>
+        <v>-0.2215657497560304</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01124832956009284</v>
+        <v>-0.0008539772487168524</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.3923934769927361</v>
+        <v>-0.3870665266826281</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.08396862866092974</v>
+        <v>-0.05912769223011884</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.05139063082443238</v>
+        <v>0.04619007552585522</v>
       </c>
     </row>
     <row r="45">
@@ -2069,31 +2069,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.3846071100659317</v>
+        <v>0.4033528664428446</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.9458536725585994</v>
+        <v>0.9062672986401253</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.001440500840212</v>
+        <v>0.8755900876955893</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1273452219013612</v>
+        <v>0.1628247612993713</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.6256405169845503</v>
+        <v>0.6585846972296374</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.9878018647959115</v>
+        <v>1.011429010946458</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1113130089585285</v>
+        <v>0.1264535393371937</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.5594649304020028</v>
+        <v>0.5975906008884802</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.7935784376939059</v>
+        <v>0.7102888719381519</v>
       </c>
     </row>
     <row r="46">
